--- a/test/mac_repair/selenium/TC02_test_cases.xlsx
+++ b/test/mac_repair/selenium/TC02_test_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EEWorkspace\mac_repair\test\mac_repair\selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3B1119-6B30-4103-B72C-EA2F62E72F2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495B92D0-2333-401C-A649-1518B606715B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1704" yWindow="2760" windowWidth="17280" windowHeight="8952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,10 +90,10 @@
     <t>email@uta.edu</t>
   </si>
   <si>
-    <t>newrep</t>
-  </si>
-  <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>repTest</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>1001343611</v>
@@ -536,7 +536,7 @@
         <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/test/mac_repair/selenium/TC02_test_cases.xlsx
+++ b/test/mac_repair/selenium/TC02_test_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EEWorkspace\mac_repair\test\mac_repair\selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495B92D0-2333-401C-A649-1518B606715B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FD5AD4-F79C-4E56-906C-808B942C50CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2808" yWindow="2868" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
     <t>R</t>
   </si>
   <si>
-    <t>repTest</t>
+    <t>newrep</t>
   </si>
 </sst>
 </file>
